--- a/backend/upload/Report.xlsx
+++ b/backend/upload/Report.xlsx
@@ -397,13 +397,1174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>serialNumber</v>
+      </c>
+      <c r="B1" t="str">
+        <v>message</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PF32HCHP</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32HCHP).</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>8PKT3L2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (8PKT3L2).</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>PF32H99R</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32H99R).</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>PF32H983</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32H983).</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>PF3258BD</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF3258BD).</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>DMD8WJ2</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (DMD8WJ2).</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>PF32HCME</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32HCME).</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>1RQJG22</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (1RQJG22).</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>4SMB432</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (4SMB432).</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>4MH75F2</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (4MH75F2).</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>PF32H96V</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32H96V).</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>6ND8WJ2</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (6ND8WJ2).</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>PF3ACLJF</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF3ACLJF).</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>PB25A2B</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PB25A2B).</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4PD8WJ2</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (4PD8WJ2).</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>6G54ZB2</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (6G54ZB2).</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>9TFP1C2</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (9TFP1C2).</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>43BTXB2</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (43BTXB2).</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>7S8GYB2</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (7S8GYB2).</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>90G3XB2</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (90G3XB2).</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>B0W8RJ2</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (B0W8RJ2).</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>PF32HCL5</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32HCL5).</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>MP1ES0RM</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Validation failed for parameter 'observations'. Invalid string.</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>GRJ3X32</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (GRJ3X32).</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>76W8RJ2</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (76W8RJ2).</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>1CCWKJ2</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (1CCWKJ2).</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>J5LQYB2</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (J5LQYB2).</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>9Q53WJ2</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (9Q53WJ2).</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>3ND8WJ2</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Validation failed for parameter 'observations'. Invalid string.</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>GV53WJ2</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (GV53WJ2).</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>PF325J9C</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF325J9C).</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>FMH75F2</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (FMH75F2).</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2XV8RJ2</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (2XV8RJ2).</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>9W5CYD2</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (9W5CYD2).</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>PF32HCM1</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32HCM1).</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>PF325FN7</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF325FN7).</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>BTFP1C2</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (BTFP1C2).</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>5G54ZB2</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (5G54ZB2).</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>4LZ6FH2</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (4LZ6FH2).</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>DV8GYB2</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (DV8GYB2).</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>9TJSNJ2</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (9TJSNJ2).</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>80W8RJ2</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (80W8RJ2).</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>4VR6N72</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (4VR6N72).</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>HT53WJ2</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (HT53WJ2).</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>H6K6YB2</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (H6K6YB2).</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8X53WJ2</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (8X53WJ2).</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>PF3255RL</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF3255RL).</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>PF32589T</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32589T).</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>97W8RJ2</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (97W8RJ2).</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>7VH75F2</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (7VH75F2).</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>PF325FLR</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF325FLR).</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>PF325FMH</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF325FMH).</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2HBWKJ2</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (2HBWKJ2).</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>D29WKJ2</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (D29WKJ2).</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>54RL3M2</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (54RL3M2).</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>MP1EQ4UP</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (MP1EQ4UP).</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>GKZ1Y32</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (GKZ1Y32).</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>8KHJG22</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (8KHJG22).</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>3CX9XB2</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (3CX9XB2).</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>3BKJG22</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (3BKJG22).</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>GQN9XB2</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (GQN9XB2).</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>JFBWKJ2</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (JFBWKJ2).</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>GZNJG22</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (GZNJG22).</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>JF54ZB2</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (JF54ZB2).</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>PF3258B0</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF3258B0).</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>69W8RJ2</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (69W8RJ2).</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>JZ5MW32</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (JZ5MW32).</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>7TFP1C2</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (7TFP1C2).</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>PF0UF03R</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF0UF03R).</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>PF32H1RC</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32H1RC).</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>8G54ZB2</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (8G54ZB2).</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>PF331006</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF331006).</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>PF325J9Q</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF325J9Q).</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>PF330SDA</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF330SDA).</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>1D54ZB2</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (1D54ZB2).</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>MP1EZME5</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (MP1EZME5).</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>6TFP1C2</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Validation failed for parameter 'observations'. Invalid string.</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>PF325P1M</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF325P1M).</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>6VPQYB2</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (6VPQYB2).</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>B9LSNJ2</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (B9LSNJ2).</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>D8H1FH2</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (D8H1FH2).</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>4W8GYB2</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (4W8GYB2).</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>FX53WJ2</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (FX53WJ2).</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>DKCWKJ2</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (DKCWKJ2).</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>PF32H1SB</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32H1SB).</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>PF325JA4</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF325JA4).</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>6Y8GYB2</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (6Y8GYB2).</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>JWG85H2</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (JWG85H2).</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>4X53WJ2</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (4X53WJ2).</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>2PD8WJ2</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (2PD8WJ2).</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>C3LQYB2</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (C3LQYB2).</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>7TXFL73</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (7TXFL73).</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>7ZB9462</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (7ZB9462).</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>61HGYB2</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (61HGYB2).</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>3NV1TZ1/JJ31M</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (3NV1TZ1/JJ31M).</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>PF3258B6</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF3258B6).</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>CPRB662</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (CPRB662).</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>4HL88S3</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (4HL88S3).</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>CKL88S3</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (CKL88S3).</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>JJL88S3</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (JJL88S3).</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>7JL88S3</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (7JL88S3).</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>9KL88S3</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (9KL88S3).</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>2KL88S3</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (2KL88S3).</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>7Y588S3</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (7Y588S3).</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>DHL88S3</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (DHL88S3).</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>2JL88S3</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (2JL88S3).</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>3CX9XB2</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (3CX9XB2).</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>80HGYB2</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (80HGYB2).</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>PF2PHZ49</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF2PHZ49).</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>LR0EAVE6</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (LR0EAVE6).</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>37XLK22</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (37XLK22).</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>3D54ZB2</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (3D54ZB2).</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>PF32HCK7</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32HCK7).</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>33HGYB2</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (33HGYB2).</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>DKRDLS3</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (DKRDLS3).</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>FND8WJ2</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (FND8WJ2).</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>PF4AGDL8</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF4AGDL8).</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>6F039999C</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (6F039999C).</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>PF32H99K</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PF32H99K).</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>PW064Q4R</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4R).</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>PW064Q4T</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4T).</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>PW064Q4Q</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4Q).</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>PW064Q4V</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4V).</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>PW064Q4M</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4M).</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>PW064Q4L</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4L).</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>PW064Q4N</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4N).</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>PW064Q4K</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4K).</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>PW064Q4Y</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4Y).</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>PW064Q4P</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4P).</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>PW064Q4J</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4J).</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>PW064Q4S</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4S).</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>PW064Q4H</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4H).</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>PW064Q4X</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4X).</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>PW064Q4W</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (PW064Q4W).</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>CR2NYW3</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (CR2NYW3).</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>1R2NYW3</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (1R2NYW3).</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>4R2NYW3</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (4R2NYW3).</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>GR2NYW3</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (GR2NYW3).</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>1S2NYW3</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (1S2NYW3).</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>5S2NYW3</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (5S2NYW3).</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>JQ2NYW3</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (JQ2NYW3).</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>3R2NYW3</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (3R2NYW3).</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>8S2NYW3</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (8S2NYW3).</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>3S2NYW3</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A095BFFB6426'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (3S2NYW3).</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B145"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/upload/Report.xlsx
+++ b/backend/upload/Report.xlsx
@@ -397,54 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>serialNumber</v>
-      </c>
-      <c r="B1" t="str">
-        <v>message</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>MP1ES0RM</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Validation failed for parameter 'observations'. Invalid string.</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>3ND8WJ2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Validation failed for parameter 'observations'. Invalid string.</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>6TFP1C2</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Validation failed for parameter 'observations'. Invalid string.</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>3CX9XB2</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Violation of UNIQUE KEY constraint 'UQ__computer__3304A0951F45A261'. Cannot insert duplicate key in object 'dbo.computer'. The duplicate key value is (3CX9XB2).</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>